--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1724052.797558756</v>
+        <v>1802435.155907499</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6533076.907659167</v>
+        <v>6987251.435385637</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>16.7339023052914</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>148.7810715284956</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.5984076109086</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>156.7874807259421</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>189.380144406212</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>97.97270307775149</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1063,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>105.1252579725998</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>166.1341091420809</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>30.59709888020254</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.4370611925399</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>113.9811728869523</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1376,10 +1378,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -1388,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>376.3177599413501</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1537,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>138.1383479972084</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1576,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1594,7 +1596,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.75159993004613</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1664,10 +1666,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1771,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1780,7 +1782,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>2.492325492009699</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>125.4203831793923</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1856,13 +1858,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>141.078863852115</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.4895087206872</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2058,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>134.9361836492272</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>205.71142058453</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2476,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>7.441938898131897</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2536,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4176354689674713</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2719,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>93.6952114169567</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.82199458505589</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.87597792716577</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>21.24818656793366</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>254.9912306606092</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.768904163794</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>64.99733418373785</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3721,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3740,10 +3742,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>210.9964486155311</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3797,13 +3799,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3907,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>16.66918694452604</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>115.105571630339</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>63.75197859322627</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>110.5621939267151</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.50886816801362</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.816201625927</v>
+        <v>124.1336499652903</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.915471639227</v>
+        <v>101.2733240189945</v>
       </c>
       <c r="D2" t="n">
-        <v>824.622850824227</v>
+        <v>82.02110724439883</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>60.08457143266044</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>1359.183442594069</v>
       </c>
       <c r="M2" t="n">
-        <v>455.3583126271592</v>
+        <v>1838.122366836497</v>
       </c>
       <c r="N2" t="n">
-        <v>1006.023847611597</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596036</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>1714.181193660505</v>
       </c>
       <c r="U2" t="n">
-        <v>2103.64102671401</v>
+        <v>1455.826284256917</v>
       </c>
       <c r="V2" t="n">
-        <v>2103.64102671401</v>
+        <v>1098.336869383166</v>
       </c>
       <c r="W2" t="n">
-        <v>2103.64102671401</v>
+        <v>701.9455196835131</v>
       </c>
       <c r="X2" t="n">
-        <v>2095.961431922162</v>
+        <v>290.2255208512603</v>
       </c>
       <c r="Y2" t="n">
-        <v>2094.664565917456</v>
+        <v>139.9416102164163</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>693.5426250668166</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>576.0367215843214</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>472.1967630996064</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>367.4948293725436</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>273.8489990554478</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>179.7952272730518</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>126.4191340353614</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>398.1166233149524</v>
       </c>
       <c r="K3" t="n">
-        <v>687.9211111614576</v>
+        <v>877.0555475573806</v>
       </c>
       <c r="L3" t="n">
-        <v>687.9211111614576</v>
+        <v>877.0555475573806</v>
       </c>
       <c r="M3" t="n">
-        <v>1238.586646145896</v>
+        <v>1355.994471799809</v>
       </c>
       <c r="N3" t="n">
-        <v>1789.252181130334</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="P3" t="n">
-        <v>2224.911252462377</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.087454531168</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>962.162523133587</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>822.4696344868794</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>983.8830790816388</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>811.9105159605548</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>648.5937430873255</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>482.385537240179</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>310.5237630147394</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="U4" t="n">
-        <v>2054.776204981511</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="V4" t="n">
-        <v>1917.808116485644</v>
+        <v>1888.068151303044</v>
       </c>
       <c r="W4" t="n">
-        <v>1642.955712658157</v>
+        <v>1613.215747475557</v>
       </c>
       <c r="X4" t="n">
-        <v>1400.391816103962</v>
+        <v>1370.651850921363</v>
       </c>
       <c r="Y4" t="n">
-        <v>1174.049047793704</v>
+        <v>1212.280658268896</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.9297397222204</v>
+        <v>333.2593601902432</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
         <v>2224.911252462377</v>
@@ -4592,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2021.581631994354</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1763.226722590766</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1763.226722590766</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>1366.835372891113</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>955.1153740588601</v>
+        <v>1158.444994526883</v>
       </c>
       <c r="Y5" t="n">
-        <v>549.7781040137504</v>
+        <v>753.1077244817733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>1123.5801824935</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M6" t="n">
-        <v>1123.5801824935</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1123.5801824935</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O6" t="n">
-        <v>1674.245717477938</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P6" t="n">
-        <v>2224.911252462377</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>962.2361343535731</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>790.2635712324891</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>626.9467983592598</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>460.7385925121133</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4750,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="V7" t="n">
-        <v>1596.586012437937</v>
+        <v>1896.161171757579</v>
       </c>
       <c r="W7" t="n">
-        <v>1596.586012437937</v>
+        <v>1621.308767930092</v>
       </c>
       <c r="X7" t="n">
-        <v>1354.022115883742</v>
+        <v>1378.744871375897</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.679347573484</v>
+        <v>1152.402103065639</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>533.9701437626245</v>
+        <v>2185.028631180769</v>
       </c>
       <c r="C8" t="n">
-        <v>511.1098178163286</v>
+        <v>1758.12790119407</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4805,19 +4807,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O8" t="n">
         <v>1508.432753835019</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1768.825772958194</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1768.825772958194</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4838,16 +4840,16 @@
         <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X8" t="n">
-        <v>1059.31048905672</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8185080541546</v>
+        <v>2215.934791665823</v>
       </c>
     </row>
     <row r="9">
@@ -4884,19 +4886,19 @@
         <v>201.1892506764427</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764427</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="N9" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O9" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>494.9200589091692</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>322.9474957880852</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="D10" t="n">
-        <v>159.6307229148559</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E10" t="n">
-        <v>159.6307229148559</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F10" t="n">
-        <v>159.6307229148559</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G10" t="n">
-        <v>159.6307229148559</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -5005,7 +5007,7 @@
         <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.0860276212348</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.082942235008</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1190.182212248309</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>766.8895914333087</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>766.8895914333087</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>766.8895914333087</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679216</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>376.6972081420158</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.138820539819</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>1977.580432937622</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N11" t="n">
-        <v>2778.022045335425</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O11" t="n">
-        <v>2778.022045335425</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335425</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3234.107524839608</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3234.107524839608</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.107524839608</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2853.988575403901</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2442.268576571648</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.931306526538</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>1136.821252174186</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N12" t="n">
-        <v>1136.821252174186</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.863273021029</v>
+        <v>843.1025083526774</v>
       </c>
       <c r="C13" t="n">
-        <v>975.890709899945</v>
+        <v>671.1299452315934</v>
       </c>
       <c r="D13" t="n">
-        <v>812.5739370267157</v>
+        <v>507.8131723583641</v>
       </c>
       <c r="E13" t="n">
-        <v>646.3657311795693</v>
+        <v>341.6049665112176</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541297</v>
+        <v>341.6049665112176</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483618</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.09517790992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.09517790992</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U13" t="n">
-        <v>2245.09517790992</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V13" t="n">
-        <v>2081.788310425035</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W13" t="n">
-        <v>1806.935906597548</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X13" t="n">
-        <v>1564.372010043353</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y13" t="n">
-        <v>1338.029241733095</v>
+        <v>1033.268477064743</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1765.976622961234</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1339.075892974534</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>915.7832721595344</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>489.8063323073919</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68215049679216</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>259.140873260113</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>259.140873260113</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.582485657916</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>1860.024098055719</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2660.465710453522</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O14" t="n">
-        <v>2660.465710453522</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2650.459750353794</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2650.459750353794</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2238.739751521542</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1833.402481476432</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>190.4672461969926</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M15" t="n">
-        <v>990.9088585947957</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1791.350470992599</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>740.6077309192924</v>
+        <v>941.9189991784958</v>
       </c>
       <c r="C16" t="n">
-        <v>568.6351677982084</v>
+        <v>769.9464360574118</v>
       </c>
       <c r="D16" t="n">
-        <v>405.3183949249791</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E16" t="n">
-        <v>405.3183949249791</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F16" t="n">
-        <v>233.4566206995395</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>67.19965099377166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.717216822994</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.532768323298</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V16" t="n">
-        <v>1674.532768323298</v>
+        <v>1875.844036582501</v>
       </c>
       <c r="W16" t="n">
-        <v>1399.680364495811</v>
+        <v>1600.991632755014</v>
       </c>
       <c r="X16" t="n">
-        <v>1157.116467941616</v>
+        <v>1358.427736200819</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.7736996313581</v>
+        <v>1132.084967890562</v>
       </c>
     </row>
     <row r="17">
@@ -5504,10 +5506,10 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,19 +5518,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
         <v>4997.579335409525</v>
@@ -5595,16 +5597,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>1529.586448057074</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N18" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>888.2776948471594</v>
+        <v>516.5477476675609</v>
       </c>
       <c r="C19" t="n">
-        <v>716.3051317260754</v>
+        <v>344.5751845464769</v>
       </c>
       <c r="D19" t="n">
-        <v>552.9883588528461</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E19" t="n">
-        <v>386.7801530056996</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F19" t="n">
-        <v>214.91837878026</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5680,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V19" t="n">
-        <v>1822.202732251165</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.350328423678</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X19" t="n">
-        <v>1304.786431869483</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y19" t="n">
-        <v>1078.443663559225</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,16 +5761,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5841,7 +5843,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>2065.542080025265</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1929.242904622005</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1654.390500794518</v>
+        <v>1099.556115950577</v>
       </c>
       <c r="X22" t="n">
-        <v>1411.826604240323</v>
+        <v>856.9922193963826</v>
       </c>
       <c r="Y22" t="n">
-        <v>1185.483835930065</v>
+        <v>630.6494510861246</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1013.511272808982</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2275.198630820844</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>2031.859283046744</v>
       </c>
       <c r="U25" t="n">
-        <v>1712.153331232334</v>
+        <v>1751.674834547048</v>
       </c>
       <c r="V25" t="n">
-        <v>1430.441863840363</v>
+        <v>1469.963367155077</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.020009831305</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="X25" t="n">
-        <v>1430.020009831305</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y25" t="n">
-        <v>1203.677241521047</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="26">
@@ -6242,10 +6244,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>913.8534934449018</v>
+        <v>798.2592150595294</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>626.2866519384454</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>462.9698790652161</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>462.9698790652161</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1955.492679006434</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1673.781211614463</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.928807786976</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>1156.364911232781</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>1104.019462156967</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6552,7 +6554,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3328.936755908828</v>
+        <v>913.8534934449018</v>
       </c>
       <c r="C31" t="n">
-        <v>3156.964192787744</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D31" t="n">
-        <v>3156.964192787744</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E31" t="n">
-        <v>3156.964192787744</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>2985.102418562305</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878299</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4824.7577092045</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.573260704805</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.861793312833</v>
+        <v>1847.778530848907</v>
       </c>
       <c r="W31" t="n">
-        <v>3988.009389485347</v>
+        <v>1572.92612702142</v>
       </c>
       <c r="X31" t="n">
-        <v>3745.445492931152</v>
+        <v>1330.362230467225</v>
       </c>
       <c r="Y31" t="n">
-        <v>3519.102724620894</v>
+        <v>1104.019462156967</v>
       </c>
     </row>
     <row r="32">
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.1944999357522</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1564.635832593984</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1282.924365202013</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1282.924365202013</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1040.360468647818</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1040.360468647818</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,31 +6955,31 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7005,7 +7007,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
         <v>102.3027134058285</v>
@@ -7026,7 +7028,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>898.4712074343906</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C37" t="n">
-        <v>726.4986443133066</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D37" t="n">
-        <v>563.1818714400773</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E37" t="n">
-        <v>417.9607561231137</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F37" t="n">
-        <v>246.0989818976741</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976741</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1832.396244838396</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1557.543841010909</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1314.979944456714</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.637176146456</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883226</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7175,43 +7177,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1031.927761025105</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2036.213862444163</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3012.464920930865</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3857.609571081677</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5021.974329743787</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7257,16 +7259,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>775.6620294727279</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>603.6894663516439</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7360,22 +7362,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2271.4829827684</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U40" t="n">
-        <v>1991.298534268705</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.587066876733</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.734663049246</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.170766495052</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.8279981847936</v>
+        <v>1251.137708842932</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1533.25006044436</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1320.122334570086</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679213</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679213</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L41" t="n">
-        <v>780.1904584722912</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M41" t="n">
-        <v>1580.632070870094</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2381.073683267896</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>2381.073683267896</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335423</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.18195388424</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>2754.827044480652</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>2754.827044480652</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>2358.435694780999</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2358.435694780999</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>1953.09842473589</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L42" t="n">
-        <v>64.68215049679213</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M42" t="n">
-        <v>608.78269181672</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N42" t="n">
-        <v>1409.224304214523</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O42" t="n">
-        <v>1409.224304214523</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P42" t="n">
-        <v>1409.224304214523</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C43" t="n">
-        <v>975.8907098999449</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267156</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795691</v>
+        <v>285.3972456818248</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>2198.056564597094</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>2198.056564597094</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V43" t="n">
-        <v>2081.788310425034</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W43" t="n">
-        <v>1806.935906597547</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X43" t="n">
-        <v>1564.372010043352</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y43" t="n">
-        <v>1338.029241733095</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2079.78831433928</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1652.88758435258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.88758435258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332092</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M44" t="n">
-        <v>1952.186431295593</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N44" t="n">
-        <v>1952.186431295593</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>1952.186431295593</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>2660.46571045352</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3116.551189957704</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839606</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839606</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>2975.752615436018</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2911.356677463063</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2911.356677463063</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2499.63667863081</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2499.63667863081</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>336.3796397763832</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M45" t="n">
-        <v>1136.821252174186</v>
+        <v>739.6560874287652</v>
       </c>
       <c r="N45" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>976.0014987955893</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>804.0289356745053</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D46" t="n">
-        <v>640.712162801276</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E46" t="n">
-        <v>474.5039569541296</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483617</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.092586825001</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1758.908138325306</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.196670933334</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.344267105847</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.344267105847</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.0014987955893</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>450.7747902674474</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865907</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533996</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>135.2436609954298</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>54.62333717170332</v>
       </c>
       <c r="O3" t="n">
-        <v>463.2315577343863</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>35.03264989479647</v>
@@ -8292,13 +8294,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>462.5747547263937</v>
+        <v>268.1828480767084</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8313,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8453,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>300.3028744740158</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8532,22 +8534,22 @@
         <v>178.8848775931265</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>350.9313256889747</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425249</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093338</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241317</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>1004.802661823039</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>767.1603027556724</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>225.8429117717693</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093338</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,13 +9011,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>149.5707389366543</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>831.6236617222301</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>829.8699094234437</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
@@ -9027,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9243,19 +9245,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>408.4283502568324</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9489,10 +9491,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O21" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>124.3756766890881</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286654</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10674,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>129.1350140843301</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>438.5333032925817</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>572.6932868960935</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
@@ -11300,16 +11302,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425245</v>
+        <v>229.9501690078907</v>
       </c>
       <c r="M44" t="n">
-        <v>412.7386976726631</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11382,10 +11384,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222296</v>
+        <v>392.4461590409599</v>
       </c>
       <c r="N45" t="n">
-        <v>765.3314412469923</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11397,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23264,10 +23266,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>16.10967626130645</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23425,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>26.45605201150178</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.8982807185686</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23554,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.8659803149174</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>20.60474129238196</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>53.104891288023</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>143.9581690688242</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>66.39245920468213</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>160.9917581079246</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>271.6862443202446</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>76.44794506622848</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>172.2573460420995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>114.7184220815444</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>257.6461661501177</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>22.39137335408958</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>20.77721962488101</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>123.2669748412071</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>211.6352740713017</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25685,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>153.4739695386591</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25840,10 +25842,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>163.7887810877123</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>290.1625421317867</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>59.58096255647008</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>205.3970861283454</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>602372.2542577689</v>
+        <v>599400.2067787709</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448786.1610198253</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448786.1610198253</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509472</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448786.1610198251</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448786.161019825</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451393.0677086515</v>
+        <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
+        <v>451393.0677086513</v>
+      </c>
+      <c r="D2" t="n">
         <v>451393.0677086514</v>
       </c>
-      <c r="D2" t="n">
-        <v>451393.0677086513</v>
-      </c>
       <c r="E2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="F2" t="n">
-        <v>322990.9468021281</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="H2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="I2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="J2" t="n">
+        <v>435573.5624315214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>435573.5624315216</v>
+      </c>
+      <c r="L2" t="n">
         <v>435573.5624315215</v>
-      </c>
-      <c r="K2" t="n">
-        <v>435573.5624315217</v>
-      </c>
-      <c r="L2" t="n">
-        <v>435573.5624315217</v>
       </c>
       <c r="M2" t="n">
         <v>435573.5624315217</v>
@@ -26350,10 +26352,10 @@
         <v>435573.5624315215</v>
       </c>
       <c r="O2" t="n">
-        <v>322990.946802128</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="P2" t="n">
-        <v>322990.9468021279</v>
+        <v>435573.5624315216</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346227</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653738</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187607.6695456101</v>
+      </c>
+      <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
-      <c r="C4" t="n">
-        <v>173998.4022791779</v>
-      </c>
       <c r="D4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>43020.44595046938</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
-        <v>43020.44595046937</v>
+        <v>58064.51385187964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23543.68097730834</v>
+        <v>38619.47927128873</v>
       </c>
       <c r="C6" t="n">
+        <v>186541.5807184331</v>
+      </c>
+      <c r="D6" t="n">
         <v>209948.4143920454</v>
       </c>
-      <c r="D6" t="n">
-        <v>209948.4143920453</v>
-      </c>
       <c r="E6" t="n">
-        <v>155481.1153206343</v>
+        <v>84019.62983457152</v>
       </c>
       <c r="F6" t="n">
-        <v>230812.0664740967</v>
+        <v>299758.9863912122</v>
       </c>
       <c r="G6" t="n">
-        <v>170868.5865796719</v>
+        <v>299758.9863912121</v>
       </c>
       <c r="H6" t="n">
-        <v>299758.9863912124</v>
+        <v>299758.9863912122</v>
       </c>
       <c r="I6" t="n">
+        <v>299758.9863912122</v>
+      </c>
+      <c r="J6" t="n">
+        <v>173181.7178109233</v>
+      </c>
+      <c r="K6" t="n">
+        <v>281112.3860341924</v>
+      </c>
+      <c r="L6" t="n">
+        <v>299758.9863912122</v>
+      </c>
+      <c r="M6" t="n">
+        <v>119695.1149360446</v>
+      </c>
+      <c r="N6" t="n">
+        <v>299758.9863912122</v>
+      </c>
+      <c r="O6" t="n">
         <v>299758.9863912123</v>
       </c>
-      <c r="J6" t="n">
-        <v>154225.3164563957</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>299758.9863912123</v>
-      </c>
-      <c r="L6" t="n">
-        <v>299758.9863912124</v>
-      </c>
-      <c r="M6" t="n">
-        <v>236885.0494258386</v>
-      </c>
-      <c r="N6" t="n">
-        <v>299758.9863912123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>230812.0664740967</v>
-      </c>
-      <c r="P6" t="n">
-        <v>230812.0664740965</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26820,16 +26822,16 @@
         <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943074</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943079</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.0374580042604</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>252.502825816163</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27594,7 +27596,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>143.2959451071428</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>67.29185990121326</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>233.2515782806209</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>120.7436121680617</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>65.01789851058537</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>112.7602435759705</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>385.0527817684122</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.8468361521186</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>38.61621282745671</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28026,10 +28028,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>28.37713291997484</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>415.010189472638</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>97.96403816098376</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>33.28030895816165</v>
       </c>
       <c r="O3" t="n">
-        <v>440.0596680121641</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>440.0596680121642</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>263.0232516395698</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35252,22 +35254,22 @@
         <v>158.2737632597931</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>315.1667248941653</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099021</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099021</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>743.9884130334502</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>196.4229522861827</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099021</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>127.0556522224247</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>808.5268812099021</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>808.5268812099021</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366198</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36209,10 +36211,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>86.80031487885682</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.492718418434</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>760.3041339439036</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>94.10236418953359</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>400.9579414823504</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>549.5965063837655</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
@@ -38020,16 +38022,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099016</v>
+        <v>191.6381265752678</v>
       </c>
       <c r="M44" t="n">
-        <v>375.3074347732313</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38102,10 +38104,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099016</v>
+        <v>369.3493785286319</v>
       </c>
       <c r="N45" t="n">
-        <v>743.9884130334507</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802435.155907499</v>
+        <v>1801738.494702409</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114753</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6987251.435385637</v>
+        <v>6987251.435385638</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>414.755665302895</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -715,19 +715,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.7810715284956</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.3139250731669</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.7874807259421</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>189.380144406212</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>16.23111557624603</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>105.1252579725998</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074653</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.59709888020254</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1150,7 +1150,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.73390230529095</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>123.0673923170403</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>117.6389794551526</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1353,10 +1353,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1530,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,13 +1539,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>138.1383479972084</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>116.1570154064491</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>238.5792768260963</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>125.4203831793923</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,7 +1846,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>141.078863852115</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>96.4442051068671</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2098,7 +2098,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>205.71142058453</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2478,10 +2478,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2493,7 +2493,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>7.441938898131897</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.9278979835759</v>
       </c>
       <c r="Y25" t="n">
         <v>224.0793406271554</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>93.6952114169567</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>76.64068269426197</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2952,13 +2952,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>31.11661068715809</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>21.24818656793366</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>44.02781544003288</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>4.378995526348093</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -3477,19 +3477,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>186.810132212935</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.99733418373785</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3723,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3742,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>16.66918694452604</v>
+        <v>148.0129566003203</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>110.5621939267151</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>146.3034971231918</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>124.1336499652903</v>
+        <v>927.8669536986695</v>
       </c>
       <c r="C2" t="n">
-        <v>101.2733240189945</v>
+        <v>500.9662237119696</v>
       </c>
       <c r="D2" t="n">
         <v>82.02110724439883</v>
@@ -4333,22 +4333,22 @@
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>521.143436626832</v>
       </c>
       <c r="L2" t="n">
-        <v>1359.183442594069</v>
+        <v>521.143436626832</v>
       </c>
       <c r="M2" t="n">
-        <v>1838.122366836497</v>
+        <v>521.143436626832</v>
       </c>
       <c r="N2" t="n">
-        <v>1935.106764615871</v>
+        <v>521.143436626832</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615871</v>
+        <v>1000.08236086926</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1479.021285111688</v>
       </c>
       <c r="Q2" t="n">
         <v>1935.106764615871</v>
@@ -4363,19 +4363,19 @@
         <v>1714.181193660505</v>
       </c>
       <c r="U2" t="n">
-        <v>1455.826284256917</v>
+        <v>1714.181193660505</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.336869383166</v>
+        <v>1356.691778786754</v>
       </c>
       <c r="W2" t="n">
-        <v>701.9455196835131</v>
+        <v>1356.691778786754</v>
       </c>
       <c r="X2" t="n">
-        <v>290.2255208512603</v>
+        <v>1349.012183994905</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9416102164163</v>
+        <v>1347.7153179902</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668166</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843214</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996064</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725436</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>273.8489990554478</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>179.7952272730518</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353614</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4191340353614</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J3" t="n">
-        <v>398.1166233149524</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K3" t="n">
-        <v>877.0555475573806</v>
+        <v>517.6410595347455</v>
       </c>
       <c r="L3" t="n">
-        <v>877.0555475573806</v>
+        <v>996.5799837771737</v>
       </c>
       <c r="M3" t="n">
-        <v>1355.994471799809</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.941977668389</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.941977668389</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668389</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531168</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.162523133587</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868794</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1022.11468955683</v>
+        <v>1121.883257816554</v>
       </c>
       <c r="C4" t="n">
-        <v>850.1421264357463</v>
+        <v>949.9106946954703</v>
       </c>
       <c r="D4" t="n">
-        <v>686.825353562517</v>
+        <v>786.593921822241</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153705</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>182.498403784163</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
         <v>38.70213529231743</v>
@@ -4491,49 +4491,49 @@
         <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1162.079293773445</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
         <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1888.068151303044</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1888.068151303044</v>
+        <v>1764.971717135006</v>
       </c>
       <c r="T4" t="n">
-        <v>1888.068151303044</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="U4" t="n">
-        <v>1888.068151303044</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="V4" t="n">
-        <v>1888.068151303044</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="W4" t="n">
-        <v>1613.215747475557</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="X4" t="n">
-        <v>1370.651850921363</v>
+        <v>1538.391994838878</v>
       </c>
       <c r="Y4" t="n">
-        <v>1212.280658268896</v>
+        <v>1312.04922652862</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.2593601902432</v>
+        <v>1780.988227140365</v>
       </c>
       <c r="C5" t="n">
-        <v>141.9662850324534</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>122.7140682578577</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>100.7775324461193</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
         <v>79.39509630577632</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1145.829295018124</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="N5" t="n">
-        <v>1696.494830002562</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1570.164993359136</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>1158.444994526883</v>
+        <v>2217.231657670528</v>
       </c>
       <c r="Y5" t="n">
-        <v>753.1077244817733</v>
+        <v>2200.836591431896</v>
       </c>
     </row>
     <row r="6">
@@ -4652,19 +4652,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>287.7093087981016</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N6" t="n">
-        <v>287.7093087981016</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>962.2361343535731</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>790.2635712324891</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>626.9467983592598</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>460.7385925121133</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
         <v>354.551463246861</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734062</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>1896.161171757579</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1621.308767930092</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1378.744871375897</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1152.402103065639</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185.028631180769</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1758.12790119407</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>1334.83528037907</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
         <v>79.39509630577632</v>
@@ -4807,49 +4807,49 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P8" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>201.1892506764427</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>751.8547856608809</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>1302.520320645319</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>1853.185855629757</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5772905989112</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2667933089716</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
         <v>144.2667933089716</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2106.084000487475</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>1825.899551987779</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
@@ -5047,19 +5047,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O11" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P11" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q11" t="n">
         <v>5115.135670291427</v>
@@ -5126,16 +5126,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L12" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M12" t="n">
-        <v>1910.990343986338</v>
+        <v>105.4776804749704</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>843.1025083526774</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="C13" t="n">
-        <v>671.1299452315934</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D13" t="n">
-        <v>507.8131723583641</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E13" t="n">
-        <v>341.6049665112176</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F13" t="n">
-        <v>341.6049665112176</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1832.396244838396</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V13" t="n">
-        <v>1550.684777446425</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W13" t="n">
-        <v>1275.832373618938</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X13" t="n">
-        <v>1033.268477064743</v>
+        <v>1430.020009831305</v>
       </c>
       <c r="Y13" t="n">
-        <v>1033.268477064743</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="14">
@@ -5287,19 +5287,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N14" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5363,16 +5363,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N15" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
         <v>1910.990343986338</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>941.9189991784958</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C16" t="n">
-        <v>769.9464360574118</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D16" t="n">
-        <v>606.6296631841825</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E16" t="n">
-        <v>440.421457337036</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F16" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
@@ -5466,22 +5466,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T16" t="n">
-        <v>2282.715740818957</v>
+        <v>2041.726572307748</v>
       </c>
       <c r="U16" t="n">
-        <v>2002.531292319261</v>
+        <v>1761.542123808053</v>
       </c>
       <c r="V16" t="n">
-        <v>1875.844036582501</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W16" t="n">
-        <v>1600.991632755014</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X16" t="n">
-        <v>1358.427736200819</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.084967890562</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="17">
@@ -5494,46 +5494,46 @@
         <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>533.9931985757493</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.618246195026</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5603,13 +5603,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>516.5477476675609</v>
+        <v>543.5554397491876</v>
       </c>
       <c r="C19" t="n">
-        <v>344.5751845464769</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="D19" t="n">
-        <v>202.0712816655526</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="E19" t="n">
-        <v>202.0712816655526</v>
+        <v>371.5828766281036</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>199.721102402664</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>199.721102402664</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>199.721102402664</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5682,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
         <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025268</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251168</v>
+        <v>2039.37639304486</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751472</v>
+        <v>1759.191944545164</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359501</v>
+        <v>1477.480477153193</v>
       </c>
       <c r="W19" t="n">
-        <v>985.4544125320137</v>
+        <v>1202.628073325706</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778188</v>
+        <v>960.0641767715111</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675609</v>
+        <v>733.7214084612532</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2974.519853142615</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>440.483482374059</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C22" t="n">
-        <v>268.510919252975</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W22" t="n">
-        <v>1099.556115950577</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X22" t="n">
-        <v>856.9922193963826</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y22" t="n">
-        <v>630.6494510861246</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6065,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>778.6022263052665</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="C25" t="n">
-        <v>606.6296631841825</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D25" t="n">
-        <v>606.6296631841825</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2275.198630820844</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>2031.859283046744</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.674834547048</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V25" t="n">
-        <v>1469.963367155077</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W25" t="n">
-        <v>1195.11096332759</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X25" t="n">
-        <v>1195.11096332759</v>
+        <v>1330.251441571581</v>
       </c>
       <c r="Y25" t="n">
-        <v>968.7681950173321</v>
+        <v>1103.908673261323</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6314,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>798.2592150595294</v>
+        <v>1163.130098674646</v>
       </c>
       <c r="C28" t="n">
-        <v>626.2866519384454</v>
+        <v>991.1575355535624</v>
       </c>
       <c r="D28" t="n">
-        <v>462.9698790652161</v>
+        <v>827.8407626803331</v>
       </c>
       <c r="E28" t="n">
-        <v>462.9698790652161</v>
+        <v>661.6325568331866</v>
       </c>
       <c r="F28" t="n">
-        <v>368.3282513713204</v>
+        <v>489.770782607747</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>323.5138129019792</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>179.7175444101336</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6417,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6545,16 +6545,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>913.8534934449018</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>741.8809303238178</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="D31" t="n">
-        <v>578.5641574505885</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1847.778530848907</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>1572.92612702142</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>1330.362230467225</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>1104.019462156967</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>446.1370507523521</v>
+        <v>648.2727960958064</v>
       </c>
       <c r="C34" t="n">
-        <v>274.1644876312681</v>
+        <v>476.3002329747223</v>
       </c>
       <c r="D34" t="n">
-        <v>274.1644876312681</v>
+        <v>312.9834601014931</v>
       </c>
       <c r="E34" t="n">
-        <v>274.1644876312681</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="F34" t="n">
-        <v>102.3027134058285</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="G34" t="n">
-        <v>102.3027134058285</v>
+        <v>146.7752542543466</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.20968432887</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="X34" t="n">
-        <v>862.6457877746757</v>
+        <v>1064.78153311813</v>
       </c>
       <c r="Y34" t="n">
-        <v>636.3030194644177</v>
+        <v>838.4387648078721</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>516.5477476675582</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>516.5477476675582</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D37" t="n">
-        <v>516.5477476675582</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E37" t="n">
-        <v>516.5477476675582</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F37" t="n">
         <v>512.1245198631661</v>
@@ -7125,22 +7125,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1876.844976779876</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,40 +7162,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1477.48047715319</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1477.48047715319</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1251.137708842932</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
         <v>2113.800768076616</v>
@@ -7411,16 +7411,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
         <v>2988.069926596602</v>
@@ -7438,25 +7438,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>964.4851292537592</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>964.4851292537592</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O42" t="n">
-        <v>964.4851292537592</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>786.8947875232845</v>
+        <v>1163.130098674646</v>
       </c>
       <c r="C43" t="n">
-        <v>614.9222244022005</v>
+        <v>991.1575355535624</v>
       </c>
       <c r="D43" t="n">
-        <v>451.6054515289712</v>
+        <v>827.8407626803331</v>
       </c>
       <c r="E43" t="n">
-        <v>285.3972456818248</v>
+        <v>661.6325568331866</v>
       </c>
       <c r="F43" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G43" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H43" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>2002.531292319261</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.81982492729</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.967421099803</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X43" t="n">
-        <v>1203.403524545608</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y43" t="n">
-        <v>977.0607562353503</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,28 +7636,28 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
         <v>2988.069926596602</v>
@@ -7675,10 +7675,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7727,28 +7727,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>739.6560874287652</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N45" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
         <v>1910.990343986338</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5554397491844</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C46" t="n">
-        <v>543.5554397491844</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D46" t="n">
-        <v>380.2386668759551</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E46" t="n">
-        <v>380.2386668759551</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F46" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2282.715740818957</v>
+        <v>2087.895817280684</v>
       </c>
       <c r="T46" t="n">
-        <v>2039.376393044857</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="U46" t="n">
-        <v>1759.191944545161</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="V46" t="n">
-        <v>1477.48047715319</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.628073325703</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X46" t="n">
-        <v>960.064176771508</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y46" t="n">
-        <v>733.72140846125</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>156.8129265701821</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865907</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533996</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>135.2436609954298</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8057,19 +8057,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>506.1759249873011</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
         <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>54.62333717170332</v>
+        <v>396.9701573582137</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8078,10 +8078,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178311</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>268.1828480767084</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
@@ -8315,7 +8315,7 @@
         <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>300.5986134498011</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>178.8848775931265</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>995.9774475394116</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8774,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.802661823039</v>
+        <v>26.3038179559056</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>281.3706244104145</v>
       </c>
       <c r="N15" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9251,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,22 +9409,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>910.6437127227809</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,22 +10120,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,10 +10193,10 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>186.3697998820327</v>
       </c>
       <c r="M30" t="n">
         <v>1089.749849175</v>
@@ -10205,7 +10205,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,28 +10424,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>248.2838641991609</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,22 +10594,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11138,10 +11138,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,16 +11150,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>509.0028996591719</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11375,7 +11375,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11384,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>392.4461590409599</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -11399,7 +11399,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>26.45605201150178</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>123.9812421822038</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>2.326677470262695</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>153.4739695386591</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>20.60474129238196</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.326677470259682</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>66.39245920468213</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>160.9917581079246</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>25.21035960507697</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.44794506622848</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>22.13019988286482</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.136226802715</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>257.6461661501177</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>98.33049036689427</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>165.7641609568371</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>92.08422050511638</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>123.2669748412071</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>153.4739695386591</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>59.58096255647008</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>22.13019988286464</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>605244.0966509474</v>
+        <v>605244.0966509475</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605244.0966509472</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605244.0966509475</v>
+        <v>605244.0966509474</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>451393.0677086512</v>
       </c>
       <c r="C2" t="n">
+        <v>451393.0677086515</v>
+      </c>
+      <c r="D2" t="n">
         <v>451393.0677086513</v>
       </c>
-      <c r="D2" t="n">
-        <v>451393.0677086514</v>
-      </c>
       <c r="E2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="F2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="G2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315217</v>
       </c>
       <c r="H2" t="n">
         <v>435573.5624315215</v>
@@ -26337,25 +26337,25 @@
         <v>435573.5624315215</v>
       </c>
       <c r="J2" t="n">
-        <v>435573.5624315214</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="K2" t="n">
         <v>435573.5624315216</v>
       </c>
       <c r="L2" t="n">
-        <v>435573.5624315215</v>
+        <v>435573.5624315214</v>
       </c>
       <c r="M2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315216</v>
       </c>
       <c r="N2" t="n">
         <v>435573.5624315215</v>
       </c>
       <c r="O2" t="n">
-        <v>435573.5624315217</v>
+        <v>435573.5624315215</v>
       </c>
       <c r="P2" t="n">
-        <v>435573.5624315216</v>
+        <v>435573.5624315215</v>
       </c>
     </row>
     <row r="3">
@@ -26420,10 +26420,10 @@
         <v>187607.6695456101</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
         <v>58064.51385187964</v>
@@ -26447,7 +26447,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38619.47927128873</v>
+        <v>38619.47927128876</v>
       </c>
       <c r="C6" t="n">
-        <v>186541.5807184331</v>
+        <v>186541.5807184333</v>
       </c>
       <c r="D6" t="n">
-        <v>209948.4143920454</v>
+        <v>209948.4143920453</v>
       </c>
       <c r="E6" t="n">
-        <v>84019.62983457152</v>
+        <v>83968.59917238746</v>
       </c>
       <c r="F6" t="n">
-        <v>299758.9863912122</v>
+        <v>299707.955729028</v>
       </c>
       <c r="G6" t="n">
-        <v>299758.9863912121</v>
+        <v>299707.955729028</v>
       </c>
       <c r="H6" t="n">
-        <v>299758.9863912122</v>
+        <v>299707.9557290279</v>
       </c>
       <c r="I6" t="n">
-        <v>299758.9863912122</v>
+        <v>299707.9557290279</v>
       </c>
       <c r="J6" t="n">
-        <v>173181.7178109233</v>
+        <v>173130.6871487391</v>
       </c>
       <c r="K6" t="n">
-        <v>281112.3860341924</v>
+        <v>281061.3553720081</v>
       </c>
       <c r="L6" t="n">
-        <v>299758.9863912122</v>
+        <v>299707.9557290278</v>
       </c>
       <c r="M6" t="n">
-        <v>119695.1149360446</v>
+        <v>119644.0842738603</v>
       </c>
       <c r="N6" t="n">
-        <v>299758.9863912122</v>
+        <v>299707.9557290279</v>
       </c>
       <c r="O6" t="n">
-        <v>299758.9863912123</v>
+        <v>299707.9557290279</v>
       </c>
       <c r="P6" t="n">
-        <v>299758.9863912123</v>
+        <v>299707.9557290279</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>4.304029303954678</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>252.502825816163</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>16.59202922319207</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -27599,13 +27599,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.29185990121326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>233.2515782806209</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27672,19 +27672,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>385.0527817684125</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>65.01789851058537</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>65.01789851058612</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>385.0527817684122</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>201.9824129405222</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>38.61621282745671</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.2669748412064</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.642779091942156e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.827960088325199e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>121.0483257753728</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>483.7766911539678</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>483.7766911539678</v>
       </c>
-      <c r="M2" t="n">
-        <v>483.7766911539678</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97.96403816098376</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>483.7766911539678</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
         <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>33.28030895816165</v>
+        <v>375.627129144672</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34798,10 +34798,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598446</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O5" t="n">
-        <v>533.7539620806206</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
@@ -35035,7 +35035,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>263.0232516395698</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="O9" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="P9" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="Q9" t="n">
         <v>158.2737632597931</v>
-      </c>
-      <c r="K9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="L9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>958.5461846399799</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>981.7058813107108</v>
+        <v>3.207037443577619</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="N15" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35971,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.1371666366198</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391563</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,22 +36129,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>873.2124498233492</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,22 +36840,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="M30" t="n">
         <v>1066.653068662672</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,22 +37314,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>487.2320584543432</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38104,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>369.3493785286319</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
